--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-353700.2385211302</v>
+        <v>-355587.8200375325</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>148.4037312294481</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>309.9963616278968</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>78.97002921571092</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>10.43941339835948</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>194.0711298037337</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>116.6441915191133</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>71.13219726967645</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>131.8179123113441</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>6.283679164004356</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>4.285060303199027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>30.60408762095441</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>76.94981712654014</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23.17448479371231</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -1579,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>76.2670742936298</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1664,7 +1664,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002177</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>160.075052841251</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>33.32815808118156</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>169.7438101404423</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>78.19635708727733</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151912</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>82.4743733236638</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>237.3965091869247</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.482788338502</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>109.8918198632039</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965528</v>
+        <v>73.19337109393959</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801209</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437416</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897906</v>
+        <v>93.71057173897904</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571491</v>
+        <v>55.2159888357149</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593968</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224532</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1718.448825665084</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C2" t="n">
-        <v>1349.486308724672</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="D2" t="n">
-        <v>1349.486308724672</v>
+        <v>930.7521172616393</v>
       </c>
       <c r="E2" t="n">
-        <v>1349.486308724672</v>
+        <v>544.963864663395</v>
       </c>
       <c r="F2" t="n">
-        <v>938.5004039350645</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>520.5365958332513</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2478.514423990285</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2478.514423990285</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2105.048665729205</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>2105.048665729205</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,22 +4416,22 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473.4444960005476</v>
+        <v>64.48784383890938</v>
       </c>
       <c r="C4" t="n">
-        <v>473.4444960005476</v>
+        <v>64.48784383890938</v>
       </c>
       <c r="D4" t="n">
-        <v>473.4444960005476</v>
+        <v>64.48784383890938</v>
       </c>
       <c r="E4" t="n">
-        <v>393.6767897220517</v>
+        <v>64.48784383890938</v>
       </c>
       <c r="F4" t="n">
-        <v>393.6767897220517</v>
+        <v>64.48784383890938</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>64.48784383890938</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005476</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X4" t="n">
-        <v>473.4444960005476</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y4" t="n">
-        <v>473.4444960005476</v>
+        <v>246.1363086691491</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2036.885894456657</v>
+        <v>1406.118858921978</v>
       </c>
       <c r="C5" t="n">
-        <v>1667.923377516245</v>
+        <v>1406.118858921978</v>
       </c>
       <c r="D5" t="n">
-        <v>1309.657678909495</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E5" t="n">
-        <v>923.8694263112502</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>916.9239255620467</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G5" t="n">
-        <v>498.9601174602336</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>171.7653974962365</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
         <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="W5" t="n">
-        <v>2423.485734520778</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="X5" t="n">
-        <v>2423.485734520778</v>
+        <v>1796.25819089779</v>
       </c>
       <c r="Y5" t="n">
-        <v>2423.485734520778</v>
+        <v>1406.118858921978</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4656,7 +4656,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>656.2782798936299</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="C7" t="n">
-        <v>656.2782798936299</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="D7" t="n">
-        <v>506.1616404812942</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E7" t="n">
-        <v>506.1616404812942</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F7" t="n">
-        <v>359.2716929833838</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1579.049931616194</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.087414675782</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V8" t="n">
-        <v>1936.146930626913</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W8" t="n">
-        <v>1583.378275356799</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>1579.049931616194</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>1579.049931616194</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,7 +4893,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>393.6767897220517</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>393.6767897220517</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>393.6767897220517</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>393.6767897220517</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>620.9849770534499</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>620.9849770534499</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>393.6767897220517</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>393.6767897220517</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>393.6767897220517</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>393.6767897220517</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>393.6767897220517</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>393.6767897220517</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,25 +5024,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5054,16 +5054,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>841.8631140141288</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880509</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>710.6134626728254</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="C13" t="n">
-        <v>710.6134626728254</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="D13" t="n">
-        <v>710.6134626728254</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
         <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5218,31 +5218,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1421.878821776458</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1132.750182990017</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>878.0656947841297</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150548</v>
+        <v>878.0656947841297</v>
       </c>
       <c r="X13" t="n">
-        <v>954.8146123150549</v>
+        <v>650.0761438861123</v>
       </c>
       <c r="Y13" t="n">
-        <v>734.0220331715248</v>
+        <v>429.2835647425821</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805464</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.2170914602853</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5303,25 +5303,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>462.7283310300503</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>709.4934589365143</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M15" t="n">
-        <v>1016.813592216476</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880509</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.8632439327646</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C16" t="n">
-        <v>565.9270610048577</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5455,31 +5455,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>1137.304287906534</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>1137.304287906534</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>1137.304287906534</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.5117087630043</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,67 +5498,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514078</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>434.3285960683722</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1354.17636097712</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1354.17636097712</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1354.17636097712</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1354.17636097712</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>1064.759190940159</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>836.769640042142</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>615.9770608986119</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
         <v>488.1932370805469</v>
@@ -5747,34 +5747,34 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5826,7 +5826,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5838,7 +5838,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5847,10 +5847,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119727</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119727</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1308.854947839649</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1019.726309053207</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>765.0418208473205</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>475.6246508103599</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5978,40 +5978,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6063,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6075,7 +6075,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6084,10 +6084,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6154,7 +6154,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471189</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011508</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952639</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,7 +6242,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6385,22 +6385,22 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557902</v>
@@ -6409,22 +6409,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
         <v>97.21709146028584</v>
@@ -6461,10 +6461,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6549,7 +6549,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6558,7 +6558,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.4200295030872</v>
+        <v>730.4517433652466</v>
       </c>
       <c r="C31" t="n">
-        <v>454.4181912574271</v>
+        <v>617.2764257187105</v>
       </c>
       <c r="D31" t="n">
-        <v>360.0624171264622</v>
+        <v>543.3437276440241</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264622</v>
+        <v>451.1914993430017</v>
       </c>
       <c r="F31" t="n">
         <v>360.0624171264622</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276535</v>
+        <v>247.6479607276534</v>
       </c>
       <c r="H31" t="n">
         <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864675</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
@@ -6640,7 +6640,7 @@
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
         <v>1880.811824899271</v>
@@ -6664,7 +6664,7 @@
         <v>730.4517433652466</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030872</v>
+        <v>730.4517433652466</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,22 +6683,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
@@ -6786,7 +6786,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108338</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525397</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,22 +6920,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514082</v>
@@ -6947,16 +6947,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
         <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
         <v>398.9545963083207</v>
@@ -7084,16 +7084,16 @@
         <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982975</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,22 +7157,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7196,7 +7196,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,19 +7248,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.193690363625</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,58 +7306,58 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108323</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229664</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504504</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103121</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525396</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254953</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649688</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010309</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,19 +7400,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,19 +7421,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,19 +7485,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254953</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649689</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525396</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254953</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,10 +8304,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8775,22 +8775,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>176.7176547498456</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,10 +9006,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>176.7176547498455</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>43.65987261462459</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298383</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208072</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.657495388225</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,13 +23422,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,19 +23467,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>145.2804867647596</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338554</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>92.06259048257704</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>164.5926519024217</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338574</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>143.3512039711119</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.3938331833856</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338615</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>143.2352820653734</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24649,16 +24649,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.3938331833856</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>14.7411341369033</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,16 +24838,16 @@
         <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>2.151744606866842</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>20.21884529571567</v>
       </c>
       <c r="E31" t="n">
-        <v>91.2307060180121</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437417</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
     </row>
     <row r="35">
@@ -26323,25 +26323,25 @@
         <v>234617.4358426252</v>
       </c>
       <c r="F2" t="n">
-        <v>234617.4358426252</v>
+        <v>234617.4358426251</v>
       </c>
       <c r="G2" t="n">
-        <v>234617.4358426253</v>
+        <v>234617.4358426251</v>
       </c>
       <c r="H2" t="n">
-        <v>234617.4358426252</v>
+        <v>234617.4358426251</v>
       </c>
       <c r="I2" t="n">
         <v>234617.4358426252</v>
       </c>
       <c r="J2" t="n">
-        <v>234617.4358426251</v>
+        <v>234617.4358426252</v>
       </c>
       <c r="K2" t="n">
         <v>244093.2824071618</v>
       </c>
       <c r="L2" t="n">
-        <v>246312.5309592851</v>
+        <v>246312.530959285</v>
       </c>
       <c r="M2" t="n">
         <v>246312.5309592851</v>
@@ -26350,7 +26350,7 @@
         <v>246312.5309592852</v>
       </c>
       <c r="O2" t="n">
-        <v>246312.5309592852</v>
+        <v>246312.5309592851</v>
       </c>
       <c r="P2" t="n">
         <v>246312.5309592851</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284566</v>
+        <v>44162.60530284567</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086688</v>
+        <v>10342.90680086684</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512227</v>
       </c>
       <c r="D4" t="n">
         <v>156774.9582512226</v>
@@ -26427,10 +26427,10 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
+        <v>15045.66962143911</v>
+      </c>
+      <c r="G4" t="n">
         <v>15045.6696214391</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15045.66962143908</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
@@ -26442,19 +26442,19 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563562</v>
+        <v>33210.29213563564</v>
       </c>
       <c r="L4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.4568627596</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="N4" t="n">
+        <v>37464.4568627595</v>
+      </c>
+      <c r="O4" t="n">
         <v>37464.45686275957</v>
-      </c>
-      <c r="O4" t="n">
-        <v>37464.45686275963</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275957</v>
@@ -26473,13 +26473,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26491,7 +26491,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26503,10 +26503,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002542</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-583289.3845698917</v>
+        <v>-583289.3845698916</v>
       </c>
       <c r="C6" t="n">
-        <v>6678.494644652848</v>
+        <v>6678.494644652732</v>
       </c>
       <c r="D6" t="n">
-        <v>6678.494644652819</v>
+        <v>6678.494644652805</v>
       </c>
       <c r="E6" t="n">
-        <v>-397575.5962044267</v>
+        <v>-397673.0553303989</v>
       </c>
       <c r="F6" t="n">
-        <v>127584.4402724695</v>
+        <v>127486.9811464972</v>
       </c>
       <c r="G6" t="n">
-        <v>127584.4402724696</v>
+        <v>127486.9811464972</v>
       </c>
       <c r="H6" t="n">
-        <v>127584.4402724695</v>
+        <v>127486.9811464972</v>
       </c>
       <c r="I6" t="n">
-        <v>127584.4402724695</v>
+        <v>127486.9811464973</v>
       </c>
       <c r="J6" t="n">
-        <v>-48838.77892012347</v>
+        <v>-48936.23804609562</v>
       </c>
       <c r="K6" t="n">
-        <v>70092.17643845774</v>
+        <v>70073.68270052329</v>
       </c>
       <c r="L6" t="n">
-        <v>100790.0614756333</v>
+        <v>100790.0614756332</v>
       </c>
       <c r="M6" t="n">
-        <v>-23668.04695733702</v>
+        <v>-23668.04695733708</v>
       </c>
       <c r="N6" t="n">
-        <v>111132.9682765002</v>
+        <v>111132.9682765001</v>
       </c>
       <c r="O6" t="n">
         <v>111132.9682765001</v>
       </c>
       <c r="P6" t="n">
-        <v>66970.36297365448</v>
+        <v>66970.36297365442</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964065</v>
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
+      <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="L3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26823,7 +26823,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010836</v>
+        <v>12.92863350108355</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>258.4723145122634</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>13.92641113646039</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>67.46393343085825</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>145.7314754434357</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>160.6119118169493</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>35.28712472574797</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.6997829122608</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>16.79756070686827</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>168.1320336449672</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>365.44604037527</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>149.2278925609829</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>69.71537485361772</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-1.392663762089796e-12</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34299,10 +34299,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35495,19 +35495,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>509.9122281478584</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>327.2930933377847</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,22 +36206,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,22 +36443,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>564.1615374009399</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,19 +36917,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37002,10 +37002,10 @@
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
         <v>94.42895660043183</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>250.7532875461493</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523318</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.441731308613</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,16 +38102,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,10 +38184,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
